--- a/biology/Biochimie/Lactisole/Lactisole.xlsx
+++ b/biology/Biochimie/Lactisole/Lactisole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le lactisol(e)[3] ou 'acide 2-(4-méthoxyphénoxy)propanoïque est un acide carboxylique naturel qui a la propriété de masquer la saveur sucrée.
+Le lactisol(e) ou 'acide 2-(4-méthoxyphénoxy)propanoïque est un acide carboxylique naturel qui a la propriété de masquer la saveur sucrée.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lactisole a été découvert en 1989, à partir des grains de café arabica colombien torréfiés[3]. La concentration de l'acide dans le grain est de l'ordre de 0,55 à 1,2 ppm[4], la forme isomère prédominante est la forme S (80 %)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lactisole a été découvert en 1989, à partir des grains de café arabica colombien torréfiés. La concentration de l'acide dans le grain est de l'ordre de 0,55 à 1,2 ppm, la forme isomère prédominante est la forme S (80 %).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La structure du lactisole est un hydroquinone dont les 2 groupes hydroxyles sont éthérifiés, l'un par méthyle et l'autre par un acide propanoïque. Possédant un atome de carbone asymétrique[5], le lactisole est chiral et existe donc sous forme de deux énantiomères.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La structure du lactisole est un hydroquinone dont les 2 groupes hydroxyles sont éthérifiés, l'un par méthyle et l'autre par un acide propanoïque. Possédant un atome de carbone asymétrique, le lactisole est chiral et existe donc sous forme de deux énantiomères.
 </t>
         </is>
       </c>
@@ -576,9 +592,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Alimentaire
-Aux États-Unis, le lactisole est FEMA GRAS (Numéro Fema 3773) et autorisé dans les applications comme agent aromatisant[6] jusqu'à 150 ppm. Cependant, c'est sous forme de sel de sodium (2-(4-méthoxyphénoxy)propanoate de sodium) qu'il est principalement utilisé, car plus soluble et ne développe pas de saveur acide[3].
-Physiologie</t>
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, le lactisole est FEMA GRAS (Numéro Fema 3773) et autorisé dans les applications comme agent aromatisant jusqu'à 150 ppm. Cependant, c'est sous forme de sel de sodium (2-(4-méthoxyphénoxy)propanoate de sodium) qu'il est principalement utilisé, car plus soluble et ne développe pas de saveur acide.
+</t>
         </is>
       </c>
     </row>
